--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Documents\Universidad\TEG\Trabajo Especial de Grado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83964997-AFD7-4223-BDED-0448755852B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C37B4-0C22-427C-8E3B-4E5E52BAF6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Título</t>
   </si>
@@ -43,13 +43,151 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Introducción a la Dinámica Estructural - Jorge Hurtado</t>
+  </si>
+  <si>
+    <t>En dinámica los elementos se rigen por sus grados de libertad. Se define la frecuencia natural y el amortiguamiento a partir de las ecuaciones diferenciales de movimiento.</t>
+  </si>
+  <si>
+    <t>Mecanica Vectorial para Ingenieros - Beer</t>
+  </si>
+  <si>
+    <t>Apuntes de Teoría de estructuras - U.Politecnica de Gijon</t>
+  </si>
+  <si>
+    <t>Definicion de estructura y caracteristicas generales. Tipos de Estrcuturas según su funcion estructural</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>Apuntes/Libro</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS 1 - Apuntes de Clase - Universidad de Cuenca</t>
+  </si>
+  <si>
+    <t>Tipos de estructuras. Pagina 280</t>
+  </si>
+  <si>
+    <t>Structural Analysis - Hibbeler</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Definiciones. Muy basico y poco profesional.</t>
+  </si>
+  <si>
+    <t>Definicion de estructura. Punto de vista arquitectónico.</t>
+  </si>
+  <si>
+    <t>https://textbooks.open.tudelft.nl/textbooks/catalog/book/15</t>
+  </si>
+  <si>
+    <t>Introduction to Aerospace Structures and Materials - Rene Alderliesten</t>
+  </si>
+  <si>
+    <t>Definiciones y principio de la estatica</t>
+  </si>
+  <si>
+    <t>Análisis estático de estructuras planas - Luisa Basset</t>
+  </si>
+  <si>
+    <t>https://m.riunet.upv.es/bitstream/handle/10251/38538/Análisis%20estático%20de%20estructuras%20planas%20.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>Artículo</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Definicíón de comportamiento o respuesta estática y su importancia.</t>
+  </si>
+  <si>
+    <t>Artículo/Recopilación</t>
+  </si>
+  <si>
+    <t>http://www.vibrationdata.com/tutorials_alt/frf.pdf</t>
+  </si>
+  <si>
+    <t>Recopilación/Lectura Corta</t>
+  </si>
+  <si>
+    <t>An introduction to FRF - Tom Irvine Rapport, College of Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>BibTex Cite</t>
+  </si>
+  <si>
+    <t>https://scholar.googleusercontent.com/scholar.bib?q=info:VJUcDRz1qCIJ:scholar.google.com/&amp;output=citation&amp;scisdr=ClEKZ8IdEMnwzI08rZU:AFWwaeYAAAAAZRw6tZVbc_m38LsP-Zx41kiZcms&amp;scisig=AFWwaeYAAAAAZRw6tUuqHOwWkRUoq_EmC6flBi4&amp;scisf=4&amp;ct=citation&amp;cd=-1&amp;hl=es</t>
+  </si>
+  <si>
+    <t>Frecuencia natural en estrucutras e introduccion a la respuesta en frecuencia.</t>
+  </si>
+  <si>
+    <t>Damping Ratios of Reinforced Concrete Structures Under Actual Ground Motion Excitations</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-030-12115-0_36</t>
+  </si>
+  <si>
+    <t>Conference paper</t>
+  </si>
+  <si>
+    <t>Definicion de damping ratio.</t>
+  </si>
+  <si>
+    <t>https://community.sw.siemens.com/s/article/what-is-a-frequency-response-function-frf#:~:text=A%20Frequency%20Response%20Function%20(or,between%20the%20input%20and%20output</t>
+  </si>
+  <si>
+    <t>Artículo Web</t>
+  </si>
+  <si>
+    <t>What is a Frequency Response Function (FRF)? - Peter Schandelbrand SIEMENS</t>
+  </si>
+  <si>
+    <t>http://civilwares.free.fr/The%20Seismic%20Design%20Handbook/Chapter%2004-Dynamic%20Response%20of%20Buildings.pdf</t>
+  </si>
+  <si>
+    <t>Dynamic Response of Structures - James Anderson</t>
+  </si>
+  <si>
+    <t>Lectura general y breve sobre la respuesta en frecuencia aplicada a estructuras. Informacion util sobre la respuesta en frecuencia y la coherencia luego de medir sobre una estructura. Explicacion de formas modales y respuesta imaginaria.</t>
+  </si>
+  <si>
+    <t>Intro to SHM - Los Alamos Dynamics</t>
+  </si>
+  <si>
+    <t>Presentacion</t>
+  </si>
+  <si>
+    <t>DATO: For most structures, the amount of viscous damping in the system will vary between 3% and 10% of critical</t>
+  </si>
+  <si>
+    <t>Definición y causas del daño en una estrcutura.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +208,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +224,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -121,6 +282,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,25 +618,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,16 +646,298 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44936</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44967</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44967</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44967</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44967</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44995</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C37B4-0C22-427C-8E3B-4E5E52BAF6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0A6CB-69E0-49F0-B314-4328B15FF26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Título</t>
   </si>
@@ -181,6 +181,54 @@
   </si>
   <si>
     <t>Definición y causas del daño en una estrcutura.</t>
+  </si>
+  <si>
+    <t>Criterios Fundamentales para el Diseño Sismoresistente - Marianela Blanco UCV</t>
+  </si>
+  <si>
+    <t>Cosas a tomar en cuenta al hacer diseño sismoresistente.</t>
+  </si>
+  <si>
+    <t>An introduction to Structural Health Monitoring - Farrar</t>
+  </si>
+  <si>
+    <t>Structural Health Monitoring of Large Civil Structures - Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición, características, importancia y motivación del SHM. Arquitectura de un sistema SHM (pag 25). Estrategias/Metodos del SHM y justificación del uso de acelerómetros (p 26) </t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>Definición. Tipos de monitoreo (p 14), ventajas y desventajas. Pasos a llevar a cabo para monitorear (p. 20)</t>
+  </si>
+  <si>
+    <t>Structural Health Monitoring - Daniel Balageas, Fritzen, Guemes</t>
+  </si>
+  <si>
+    <t>Structural Health Monitoring using Smart Sensor Technology - Enckell</t>
+  </si>
+  <si>
+    <t>Definición. Importancia del SHM. Tipos de SHM (Activa y Pasiva)</t>
+  </si>
+  <si>
+    <t>Origen del análisis de frecuencia natural y amortiguamiento. Por qué es importante medir variables ambientales (p. 53, 60, Conclusión 3). Redes de sensores inalámbricas, más económicas.  (p. 61, 62). Importancia de mediciones globales (p. 64)</t>
+  </si>
+  <si>
+    <t>Structural healt monitoring History, applications and future Review Book - Mohamed Abdo</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/266854280_Structural_Health_Monitoring_History_Applications_and_Future_A_Review_Book</t>
+  </si>
+  <si>
+    <t>5/10/2023, 15/10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición de SHM. Breve introduccion a la deficinión de daño. Reseña histórica del uso de SHM en ingeniería. Pasos  del SHM. </t>
+  </si>
+  <si>
+    <t>.bib</t>
   </si>
 </sst>
 </file>
@@ -214,7 +262,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,6 +358,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,326 +674,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="67.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>2000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>44936</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>2007</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>44967</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>44967</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>2014</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>44967</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2012</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>44967</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>2018</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>44995</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2014</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>44995</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>44995</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2019</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>44995</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2020</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>44995</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>44995</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>44995</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44995</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45148</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0A6CB-69E0-49F0-B314-4328B15FF26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF48A5-6CCD-458A-A75B-1C911B531931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
+    <workbookView xWindow="345" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
         <v>26</v>
       </c>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF48A5-6CCD-458A-A75B-1C911B531931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3BE84C-AD09-4D5A-8FA0-FA34727D5051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3BE84C-AD09-4D5A-8FA0-FA34727D5051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F3A2F-5C28-46AA-AE6D-06FE9C324322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Título</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Structural Health Monitoring of Large Civil Structures - Chen</t>
   </si>
   <si>
-    <t xml:space="preserve">Definición, características, importancia y motivación del SHM. Arquitectura de un sistema SHM (pag 25). Estrategias/Metodos del SHM y justificación del uso de acelerómetros (p 26) </t>
-  </si>
-  <si>
     <t>14/10/2023</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Definición. Importancia del SHM. Tipos de SHM (Activa y Pasiva)</t>
   </si>
   <si>
-    <t>Origen del análisis de frecuencia natural y amortiguamiento. Por qué es importante medir variables ambientales (p. 53, 60, Conclusión 3). Redes de sensores inalámbricas, más económicas.  (p. 61, 62). Importancia de mediciones globales (p. 64)</t>
-  </si>
-  <si>
     <t>Structural healt monitoring History, applications and future Review Book - Mohamed Abdo</t>
   </si>
   <si>
@@ -229,6 +223,36 @@
   </si>
   <si>
     <t>.bib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición, características, importancia y motivación del SHM. Arquitectura de un sistema SHM (pag 25). Estrategias/Metodos del SHM y justificación del uso de acelerómetros (p 26). Daño en estructuras civiles (p 100) </t>
+  </si>
+  <si>
+    <t>Modal-vibration-based Damage Identification - Worden</t>
+  </si>
+  <si>
+    <t>Articulo/Cap de libro</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>Justificacion del analisis de frecuencia y amortiguamiento para fines de SHM. Problemas sobre mediciones erroneas producto de condiciones ambientales en la frecuencia natural.</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>Modal Analysis for Damage Detection - Hearn</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>Ecuaciones dinamicas que explican el por que se estudia el cambio en la frecuencia natural como indicativo de daño.</t>
+  </si>
+  <si>
+    <t>Origen del análisis de frecuencia natural y amortiguamiento, ecuaciones dinámicas. Por qué es importante medir variables ambientales (p. 53, 60, Conclusión 3). Redes de sensores inalámbricas, más económicas.  (p. 61, 62). Importancia de mediciones globales (p. 64)</t>
   </si>
 </sst>
 </file>
@@ -674,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1048,10 +1072,10 @@
         <v>2007</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1075,12 +1099,12 @@
         <v>45148</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1095,15 +1119,15 @@
         <v>2006</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1118,18 +1142,19 @@
         <v>2006</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -1141,10 +1166,54 @@
         <v>2014</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1991</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F3A2F-5C28-46AA-AE6D-06FE9C324322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF73B2-6782-4E03-B3B9-6431EB1123B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>Título</t>
   </si>
@@ -249,17 +249,62 @@
     <t>20/10/2023</t>
   </si>
   <si>
-    <t>Ecuaciones dinamicas que explican el por que se estudia el cambio en la frecuencia natural como indicativo de daño.</t>
-  </si>
-  <si>
     <t>Origen del análisis de frecuencia natural y amortiguamiento, ecuaciones dinámicas. Por qué es importante medir variables ambientales (p. 53, 60, Conclusión 3). Redes de sensores inalámbricas, más económicas.  (p. 61, 62). Importancia de mediciones globales (p. 64)</t>
+  </si>
+  <si>
+    <t>Vibrational Based Inspection - Rytters</t>
+  </si>
+  <si>
+    <t>Tesis PhD</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>Structural Damage Localization from Modal Strain Energy Change - Shi and Law</t>
+  </si>
+  <si>
+    <t>Ecuaciones dinamicas para llegar a que cambios en frecuencia generan cambios en rigidez</t>
+  </si>
+  <si>
+    <t>Estrategias del SHM.</t>
+  </si>
+  <si>
+    <t>Ecuaciones dinamicas que explican el por que se estudia el cambio en la frecuencia natural como indicativo de daño. Justificacion del estudio de frecuencias y amortiguamiento por daño en vigas. PROBLEMAS CON LOS QUE SE PUEDE ENCONTRAR EL SHM POR VIBRACION</t>
+  </si>
+  <si>
+    <t>Effects of environmental and operational variability on SHM - Sohn</t>
+  </si>
+  <si>
+    <t>Justifica la medicion de temperatura para corregir el efecto ambiental en las mediciones.</t>
+  </si>
+  <si>
+    <t>INCLINOMETER METHOD OF DISPLACEMENT MEASUREMENTS - Wierzbicki</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>Tipos de SHM (Model/data based)</t>
+  </si>
+  <si>
+    <t>A review on fatigue monitoring - Fernandez</t>
+  </si>
+  <si>
+    <t>Justificacion en la medicion de inclinacion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge-Deflection Estimation through Inclinometer Data Considering Structural Damages - </t>
+  </si>
+  <si>
+    <t>Justificacion en la medicion de inclinacion/desplazamiento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +326,12 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -351,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,6 +435,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1157,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="8" t="s">
         <v>59</v>
       </c>
@@ -1169,7 +1224,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1196,7 +1251,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
@@ -1206,6 +1262,9 @@
       <c r="D21" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="3">
         <v>1991</v>
       </c>
@@ -1213,7 +1272,143 @@
         <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1993</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1997</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF73B2-6782-4E03-B3B9-6431EB1123B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0141E9-7A10-4896-B6FE-AD0F9832A2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>Título</t>
   </si>
@@ -294,10 +294,22 @@
     <t>Justificacion en la medicion de inclinacion.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridge-Deflection Estimation through Inclinometer Data Considering Structural Damages - </t>
-  </si>
-  <si>
     <t>Justificacion en la medicion de inclinacion/desplazamiento.</t>
+  </si>
+  <si>
+    <t>Bridge-Deflection Estimation through Inclinometer Data Considering Structural Damages - Zhang</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>Definición breve y ventajas de los smart sensors.</t>
+  </si>
+  <si>
+    <t>Introduction to Instrumentation, Sensors and Process Control - Dunn</t>
+  </si>
+  <si>
+    <t>Sensor Technologies for Civil Infrastructure</t>
   </si>
 </sst>
 </file>
@@ -752,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1392,9 @@
       <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" s="3">
         <v>2023</v>
       </c>
@@ -1392,8 +1406,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1401,6 +1416,9 @@
       <c r="D27" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="3">
         <v>2017</v>
       </c>
@@ -1408,7 +1426,47 @@
         <v>85</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0141E9-7A10-4896-B6FE-AD0F9832A2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517098BA-268F-4C79-972B-7A2B5449AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>Título</t>
   </si>
@@ -310,6 +310,30 @@
   </si>
   <si>
     <t>Sensor Technologies for Civil Infrastructure</t>
+  </si>
+  <si>
+    <t>Historia del uso de sensores en la industria.</t>
+  </si>
+  <si>
+    <t>SHM using Smart Sensors - Nagayama</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <t>Definicion de Smart Sensor. Historia breve. Caracteristicas que debe tener un SS. Desafíos al implementar SS. Características de la arquitectura del sistema SHM con SS. Efectos de la perdida de datos por comunicación inalambrica.</t>
+  </si>
+  <si>
+    <t>Smart Sensor Systems Emerging Technologies and Applications - Meijer</t>
+  </si>
+  <si>
+    <t>Definición de Smart Sensor y future trends.</t>
+  </si>
+  <si>
+    <t>Understanding Smart Sensors - Frank</t>
+  </si>
+  <si>
+    <t>Definición y Modelo o esquema general de un SS. Características necesarias en un MCU para ser utilizado en aplicaciones de SHM.</t>
   </si>
 </sst>
 </file>
@@ -764,11 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,6 +1492,80 @@
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517098BA-268F-4C79-972B-7A2B5449AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D47F8-F281-402A-9ACC-7419D6E15446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -333,7 +333,7 @@
     <t>Understanding Smart Sensors - Frank</t>
   </si>
   <si>
-    <t>Definición y Modelo o esquema general de un SS. Características necesarias en un MCU para ser utilizado en aplicaciones de SHM.</t>
+    <t>Definición y Modelo o esquema general de un SS. Características necesarias en un MCU para ser utilizado en aplicaciones de SHM. Standars from IEEE for Smart Sensors OJO.</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="8" t="s">
         <v>101</v>

--- a/Referencias Consultadas Spreadsheet.xlsx
+++ b/Referencias Consultadas Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatov\Desktop\TEG_JT_UCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D47F8-F281-402A-9ACC-7419D6E15446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CCBBFA-0592-4959-98FA-0AF014AE5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5898B617-1D6E-4B4F-93AC-B192439AA122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>Título</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Definición y Modelo o esquema general de un SS. Características necesarias en un MCU para ser utilizado en aplicaciones de SHM. Standars from IEEE for Smart Sensors OJO.</t>
+  </si>
+  <si>
+    <t>SHM, History, Applications - Mohamed Abdo</t>
+  </si>
+  <si>
+    <t>Metodos de identificacion de daño</t>
   </si>
 </sst>
 </file>
@@ -788,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F67EF-8173-45AF-BC18-0B0A6EBE21A7}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1573,54 @@
         <v>102</v>
       </c>
     </row>
+    <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45448</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45448</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
